--- a/app/data/absenteeism_data_27.xlsx
+++ b/app/data/absenteeism_data_27.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71273</v>
+        <v>69375</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Davi Ferreira</t>
+          <t>Vinicius Dias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>3716.59</v>
+        <v>8341.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89915</v>
+        <v>38900</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Isaac Cardoso</t>
+          <t>Augusto Moreira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>4856.36</v>
+        <v>5377.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>54010</v>
+        <v>82807</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Pedro Miguel da Conceição</t>
+          <t>Stephany Rocha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,55 +548,55 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>10147.07</v>
+        <v>12435.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43137</v>
+        <v>10062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Luiza Nunes</t>
+          <t>Pedro Henrique Novaes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>12346.81</v>
+        <v>2985.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>86790</v>
+        <v>86981</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beatriz Araújo</t>
+          <t>Emanuel Santos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,147 +606,147 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45106</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>6904.55</v>
+        <v>2733.46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2319</v>
+        <v>36339</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kaique da Conceição</t>
+          <t>Rafaela Freitas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45087</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>4226.97</v>
+        <v>4441.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>45966</v>
+        <v>62396</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bianca Moreira</t>
+          <t>Sra. Stella da Cunha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>5536.29</v>
+        <v>5775.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>59037</v>
+        <v>69723</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Sofia Carvalho</t>
+          <t>Raul Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45102</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>9050.110000000001</v>
+        <v>12396.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>88688</v>
+        <v>55356</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Lívia Dias</t>
+          <t>Maria Clara Pereira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45105</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>9471.83</v>
+        <v>9766.110000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43228</v>
+        <v>52800</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Júlia Silveira</t>
+          <t>Marcos Vinicius da Mata</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45088</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>6701.36</v>
+        <v>5855.8</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_27.xlsx
+++ b/app/data/absenteeism_data_27.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62435</v>
+        <v>15191</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vinicius Mendes</t>
+          <t>Ana Vitória da Paz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>10121.42</v>
+        <v>6975.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>63288</v>
+        <v>11845</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Davi Lucca Pinto</t>
+          <t>Anthony da Mata</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>4295.07</v>
+        <v>7818.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>29650</v>
+        <v>5280</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rodrigo das Neves</t>
+          <t>Emanuel Aragão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45106</v>
       </c>
       <c r="G4" t="n">
-        <v>7847.54</v>
+        <v>9142.07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>70187</v>
+        <v>42969</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Renan da Rocha</t>
+          <t>Dra. Maria Alice Cavalcanti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,85 +581,85 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>2976.05</v>
+        <v>4347.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>70847</v>
+        <v>13125</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João Pedro Rodrigues</t>
+          <t>Danilo Fernandes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45080</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>4060.6</v>
+        <v>6374.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69398</v>
+        <v>69429</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Otávio Costela</t>
+          <t>Lucca Pereira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>3104.94</v>
+        <v>6217.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10207</v>
+        <v>64845</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Davi Luiz Cardoso</t>
+          <t>Theo Moura</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,22 +668,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="G8" t="n">
-        <v>10227.74</v>
+        <v>10793.49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97437</v>
+        <v>43626</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Thales Caldeira</t>
+          <t>Luana Sales</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45096</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>5740.13</v>
+        <v>7604.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>44907</v>
+        <v>83010</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Isabella Monteiro</t>
+          <t>Bryan Gonçalves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="G10" t="n">
-        <v>12124.57</v>
+        <v>5460.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49020</v>
+        <v>54120</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Leandro Martins</t>
+          <t>Otávio Barbosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>8354.18</v>
+        <v>6990.91</v>
       </c>
     </row>
   </sheetData>
